--- a/ReadMeMore.xlsx
+++ b/ReadMeMore.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="1安装说明" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>AutoUpdateData说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -551,31 +551,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CREATE TABLE [dbo].[iLog](
+    <t>3、目标数据库：对应数据库，要新增一个表：iLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、目标数据库中，对应的表结构，如是递增序列属性。则目标数据库中的表，不能设置为递增，应为设置主键。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、Oracle Client 11g设置连接Oracle数据库正确,确保数据库连接正常。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SET QUOTED_IDENTIFIER ON
+GO
+CREATE TABLE [dbo].[iLog](
  [id] [bigint] IDENTITY(1,1) NOT NULL,
- [lName] [nvarchar](50) NULL,
- [ltype] [nvarchar](50) NULL,
- [lvalue] [bigint] NULL,
- [lDesc] [text] NULL,
- [ldate] [datetime] NULL,
- [remark] [text] NULL,
- CONSTRAINT [PK_iLog] PRIMARY KEY CLUSTERED 
+ [type] [nvarchar](50) NULL,
+ [system_id] [nvarchar](50) NULL,
+ [time_start] [datetime] NULL,
+ [time_done] [datetime] NULL,
+ [sql] [text] NULL,
+ [size] [int] null,
+ [address] [nvarchar](50) null,
+ [comment] [text] NULL,
+ CONSTRAINT [PK_iLog_new] PRIMARY KEY CLUSTERED 
 (
  [id] DESC
 )WITH (PAD_INDEX  = OFF, STATISTICS_NORECOMPUTE  = OFF, IGNORE_DUP_KEY = OFF, ALLOW_ROW_LOCKS  = ON, ALLOW_PAGE_LOCKS  = ON) ON [PRIMARY]
-) ON [PRIMARY] TEXTIMAGE_ON [PRIMARY]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、目标数据库：对应数据库，要新增一个表：iLog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、目标数据库中，对应的表结构，如是递增序列属性。则目标数据库中的表，不能设置为递增，应为设置主键。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、Oracle Client 11g设置连接Oracle数据库正确,确保数据库连接正常。</t>
+) ON [PRIMARY] TEXTIMAGE_ON [PRIMARY]
+GO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type 对应表如下：
+1:INVENTORY_PART_TAB
+2:INVENTORY_TRANSACTION_HIST_TAB
+3:N_AIS_SHOP_LIST_PICKED_ACT_TAB
+4:N_TRANSPORT_ORDER_TAB
+5:SHOP_ORD_TAB,SHOP_ORDER_OPERATION_TAB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,9 +702,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -707,6 +718,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -731,13 +745,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>399391</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>161237</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -769,13 +783,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>170852</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>113812</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -807,13 +821,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>208952</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>123337</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -845,13 +859,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>199427</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>75712</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -883,13 +897,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>647276</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>28186</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -921,13 +935,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>199719</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>113512</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1640,10 +1654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N131"/>
+  <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1660,221 +1674,238 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" ht="185.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-    </row>
-    <row r="12" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" s="2" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A104" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A131" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A13:L13"/>
     <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A11:L11"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A7:L7"/>
     <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1887,7 +1918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
@@ -2091,7 +2122,7 @@
   </cols>
   <sheetData>
     <row r="37" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="3"/>
@@ -2106,7 +2137,7 @@
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B38" s="3"/>
@@ -2121,7 +2152,7 @@
       <c r="K38" s="3"/>
     </row>
     <row r="39" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B39" s="3"/>
@@ -2136,7 +2167,7 @@
       <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A40" s="8"/>
+      <c r="A40" s="7"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -2149,7 +2180,7 @@
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B41" s="3"/>
@@ -2164,7 +2195,7 @@
       <c r="K41" s="3"/>
     </row>
     <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="3"/>
@@ -2179,7 +2210,7 @@
       <c r="K42" s="3"/>
     </row>
     <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B43" s="3"/>
@@ -2194,7 +2225,7 @@
       <c r="K43" s="3"/>
     </row>
     <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B44" s="3"/>
@@ -2209,7 +2240,7 @@
       <c r="K44" s="3"/>
     </row>
     <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B45" s="3"/>
@@ -2224,7 +2255,7 @@
       <c r="K45" s="3"/>
     </row>
     <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B46" s="3"/>
@@ -2239,7 +2270,7 @@
       <c r="K46" s="3"/>
     </row>
     <row r="47" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B47" s="3"/>
@@ -2254,7 +2285,7 @@
       <c r="K47" s="3"/>
     </row>
     <row r="48" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A48" s="7"/>
+      <c r="A48" s="6"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -2267,7 +2298,7 @@
       <c r="K48" s="3"/>
     </row>
     <row r="49" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B49" s="3"/>
@@ -2282,7 +2313,7 @@
       <c r="K49" s="3"/>
     </row>
     <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B50" s="3"/>
@@ -2297,7 +2328,7 @@
       <c r="K50" s="3"/>
     </row>
     <row r="51" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B51" s="3"/>
@@ -2312,7 +2343,7 @@
       <c r="K51" s="3"/>
     </row>
     <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B52" s="3"/>
@@ -2327,7 +2358,7 @@
       <c r="K52" s="3"/>
     </row>
     <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A53" s="10"/>
+      <c r="A53" s="9"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2340,7 +2371,7 @@
       <c r="K53" s="3"/>
     </row>
     <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B54" s="3"/>
@@ -2355,7 +2386,7 @@
       <c r="K54" s="3"/>
     </row>
     <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="3"/>
@@ -2370,7 +2401,7 @@
       <c r="K55" s="3"/>
     </row>
     <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B56" s="3"/>
@@ -2385,7 +2416,7 @@
       <c r="K56" s="3"/>
     </row>
     <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B57" s="3"/>
@@ -2400,7 +2431,7 @@
       <c r="K57" s="3"/>
     </row>
     <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B58" s="3"/>
@@ -2415,7 +2446,7 @@
       <c r="K58" s="3"/>
     </row>
     <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A59" s="11"/>
+      <c r="A59" s="10"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>

--- a/ReadMeMore.xlsx
+++ b/ReadMeMore.xlsx
@@ -589,7 +589,8 @@
 2:INVENTORY_TRANSACTION_HIST_TAB
 3:N_AIS_SHOP_LIST_PICKED_ACT_TAB
 4:N_TRANSPORT_ORDER_TAB
-5:SHOP_ORD_TAB,SHOP_ORDER_OPERATION_TAB</t>
+5:SHOP_ORD_TAB,SHOP_ORDER_OPERATION_TAB
+6:SHOP_ORD_TAB,SHOP_MATERIAL_ALLOC_TAB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1656,8 +1657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:L9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1772,7 +1773,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
         <v>66</v>
       </c>
